--- a/TestData/createDRPolicy.xlsx
+++ b/TestData/createDRPolicy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav Pawar\PycharmProjects\RMM_DataDriven\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C6C232-0E06-4056-8A7D-D6D7438C68AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C9BBBB-1FB5-40FE-9DD0-DB7369F3E4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>DR Name</t>
   </si>
@@ -122,10 +122,19 @@
     <t>demo22</t>
   </si>
   <si>
-    <t>demo4</t>
-  </si>
-  <si>
     <t>Continuous</t>
+  </si>
+  <si>
+    <t>demo31</t>
+  </si>
+  <si>
+    <t>02/22/2023 16:54</t>
+  </si>
+  <si>
+    <t>Once</t>
+  </si>
+  <si>
+    <t>demo41</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -683,7 +692,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -695,7 +707,25 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
